--- a/static/courses/test_ot.xlsx
+++ b/static/courses/test_ot.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="256">
   <si>
     <t>вопрос</t>
   </si>
@@ -39,151 +39,22 @@
     <t>номер вопроса</t>
   </si>
   <si>
-    <t xml:space="preserve"> Гигиенические требования к температуре в кабинете</t>
-  </si>
-  <si>
-    <t>А) 18-21 градус;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Б) 15-18 градусов;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     В) 25-30 градусов;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Г) 22- 25 градусов.</t>
-  </si>
-  <si>
     <t>По каким документам проводится инструктаж по охране труда с вновь принятым работником до начала деятельности</t>
   </si>
   <si>
-    <t>А) по программе первичного инструктажа;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Б) по инструкциям по охране труда по 7 направлениям;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     В) по правилам внутреннего распорядка школы;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Г) по программе вводного инструктажа.</t>
-  </si>
-  <si>
     <t>При какой численности работников в организации должна создаваться служба охраны труда или вводиться должность специалиста по охране труда?</t>
   </si>
   <si>
-    <t xml:space="preserve">    А) Если численность работников превышает 50 человек;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Б)  Если численность работников превышает 100 человек;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    В) Если численность работников превышает 500 человек;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Г) Создание службы охраны труда или введение должности специалиста по охране труда не зависит от численности работников организаций. </t>
-  </si>
-  <si>
-    <t>Периодичность прохождения флюорографии для сотрудников школы:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     А) 1 раз в 5 лет;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Б) 1 раз в полугодие;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     В) 1 раз в 3 года;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Г) 1 раз в год.</t>
-  </si>
-  <si>
     <t>Кто из работников организации подлежит обучению и проверке знаний требований охраны труда?</t>
   </si>
   <si>
-    <t xml:space="preserve">    А) Все работники организации, в том числе руководитель;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Б) Все работники организации, за исключением младшего обслуживающего персонала;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    В) Только работники, занимающие руководящие посты, все остальные проходят различные виды инструктажей по охране труда;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Г) Периодическое обучение проходят только работники, занимающие руководящие посты, первичному обучению и проверке знаний подлежат все вновь поступающие на работу.</t>
-  </si>
-  <si>
-    <t>Периодичность целевого инструктажа:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     А) 2 раза в год;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Б) по случаю;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     В) 1 раз в четверть;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Г) 1 раз в 5 лет.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    А)250 г (мыло туалетное) или 300 мл (жидкие моющие средства в дозирующих устройствах) на месяц;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Б) 200 г (мыло туалетное) или 250 мл (жидкие моющие средства в дозирующих устройствах) на месяц;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     В)250 г (мыло туалетное) или 300 мл (жидкие моющие средства в дозирующих устройствах) на 10 дней;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Г)  300 г (мыло туалетное) или 500 мл (жидкие моющие средства в дозирующих устройствах) на 10 дней.</t>
-  </si>
-  <si>
     <t>Какая установлена норма выдачи мыла работникам для мытья рук на работах, связанных с легкосмываемыми загрязнениями?</t>
   </si>
   <si>
     <t>За чей счет в организации производится приобретение и обеспечение работников средствами индивидуальной защиты?</t>
   </si>
   <si>
-    <t xml:space="preserve">   А) Каждый работник должен сам приобретать необходимые средства индивидуальной защиты;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Б) Приобретение и обеспечение работников средствами индивидуальной защиты производится за счет средств профсоюзной организации при условии, что данный работник является членом профсоюза, в противном случае работник обеспечивает себя самостоятельно;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   В) Приобретение средств индивидуальной защиты и обеспечение ими работников в соответствии с требованиями охраны труда производятся за счет средств работодателя;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Г) Приобретение средств индивидуальной защиты и обеспечение ими работников в соответствии с требованиями охраны труда производятся за счет средств, выделяемых работодателю из средств федерального или регионального бюджета.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> а) находится в состоянии алкогольного опьянения</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> б) грубо нарушил требования охраны труда </t>
-  </si>
-  <si>
-    <t>в) по собственной инициативе не прошел очередной медицинский осмотр</t>
-  </si>
-  <si>
-    <t>д) не применяет полагающиеся ему средства индивидуальной защиты</t>
-  </si>
-  <si>
     <t xml:space="preserve">Работодатель в законодательном порядке обязан отстранить рабочего от работы, если он: </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> а) организовать разработку инструкций по охране труда для работников своего предприятия </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> б) организовать бесплатную выдачу фирменной одежды с эмблемой предприятия всем работникам, занятым производственной деятельностью</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> в) ежедневно всем работникам, занятым обслуживанием опасного технологического оборудования, по установленным нормам выдавать молоко </t>
-  </si>
-  <si>
-    <t xml:space="preserve">г) для всех работников проводить первичный на рабочем месте и повторные инструктажи по охране труда </t>
   </si>
   <si>
     <t>Работодатель в законодательном порядке обязан</t>
@@ -2143,6 +2014,132 @@
   </si>
   <si>
     <t>4) Руководитель объекта (участка), где произошел несчастный случай     </t>
+  </si>
+  <si>
+    <t>18-21 градус</t>
+  </si>
+  <si>
+    <t>Гигиенические требования к температуре в кабинете</t>
+  </si>
+  <si>
+    <t>15-18 градусов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25-30 градусов</t>
+  </si>
+  <si>
+    <t>22- 25 градусов</t>
+  </si>
+  <si>
+    <t>по программе первичного инструктажа</t>
+  </si>
+  <si>
+    <t>по инструкциям по охране труда по 7 направлениям</t>
+  </si>
+  <si>
+    <t>по правилам внутреннего распорядка школы</t>
+  </si>
+  <si>
+    <t>по программе вводного инструктажа</t>
+  </si>
+  <si>
+    <t>Если численность работников превышает 50 человек</t>
+  </si>
+  <si>
+    <t>Если численность работников превышает 100 человек</t>
+  </si>
+  <si>
+    <t>Если численность работников превышает 500 человек</t>
+  </si>
+  <si>
+    <t>Создание службы охраны труда или введение должности специалиста по охране труда не зависит от численности работников организаций.</t>
+  </si>
+  <si>
+    <t>Периодичность прохождения флюорографии для сотрудников школы</t>
+  </si>
+  <si>
+    <t>1 раз в 5 лет</t>
+  </si>
+  <si>
+    <t>1 раз в полугодие</t>
+  </si>
+  <si>
+    <t>1 раз в 3 года</t>
+  </si>
+  <si>
+    <t>1 раз в год</t>
+  </si>
+  <si>
+    <t>Все работники организации, в том числе руководитель</t>
+  </si>
+  <si>
+    <t>Все работники организации, за исключением младшего обслуживающего персонала</t>
+  </si>
+  <si>
+    <t>Только работники, занимающие руководящие посты, все остальные проходят различные виды инструктажей по охране труда</t>
+  </si>
+  <si>
+    <t>Периодическое обучение проходят только работники, занимающие руководящие посты, первичному обучению и проверке знаний подлежат все вновь поступающие на работу</t>
+  </si>
+  <si>
+    <t>Периодичность целевого инструктажа</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 раза в год</t>
+  </si>
+  <si>
+    <t>по случаю</t>
+  </si>
+  <si>
+    <t>1 раз в четверть</t>
+  </si>
+  <si>
+    <t>250 г (мыло туалетное) или 300 мл (жидкие моющие средства в дозирующих устройствах) на месяц</t>
+  </si>
+  <si>
+    <t>200 г (мыло туалетное) или 250 мл (жидкие моющие средства в дозирующих устройствах) на месяц</t>
+  </si>
+  <si>
+    <t>250 г (мыло туалетное) или 300 мл (жидкие моющие средства в дозирующих устройствах) на 10 дней</t>
+  </si>
+  <si>
+    <t>300 г (мыло туалетное) или 500 мл (жидкие моющие средства в дозирующих устройствах) на 10 дней</t>
+  </si>
+  <si>
+    <t>Каждый работник должен сам приобретать необходимые средства индивидуальной защиты</t>
+  </si>
+  <si>
+    <t>Приобретение и обеспечение работников средствами индивидуальной защиты производится за счет средств профсоюзной организации при условии, что данный работник является членом профсоюза, в противном случае работник обеспечивает себя самостоятельно</t>
+  </si>
+  <si>
+    <t>Приобретение средств индивидуальной защиты и обеспечение ими работников в соответствии с требованиями охраны труда производятся за счет средств работодателя</t>
+  </si>
+  <si>
+    <t>Приобретение средств индивидуальной защиты и обеспечение ими работников в соответствии с требованиями охраны труда производятся за счет средств, выделяемых работодателю из средств федерального или регионального бюджета</t>
+  </si>
+  <si>
+    <t>находится в состоянии алкогольного опьянения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">грубо нарушил требования охраны труда </t>
+  </si>
+  <si>
+    <t>по собственной инициативе не прошел очередной медицинский осмотр</t>
+  </si>
+  <si>
+    <t>не применяет полагающиеся ему средства индивидуальной защиты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">организовать разработку инструкций по охране труда для работников своего предприятия </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> организовать бесплатную выдачу фирменной одежды с эмблемой предприятия всем работникам, занятым производственной деятельностью</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ежедневно всем работникам, занятым обслуживанием опасного технологического оборудования, по установленным нормам выдавать молоко </t>
+  </si>
+  <si>
+    <t xml:space="preserve">для всех работников проводить первичный на рабочем месте и повторные инструктажи по охране труда </t>
   </si>
 </sst>
 </file>
@@ -2312,7 +2309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -2320,18 +2317,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -2342,53 +2327,38 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2693,8 +2663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="G51" sqref="A1:G51"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2735,21 +2705,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>10</v>
+        <v>215</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="9">
+        <v>218</v>
+      </c>
+      <c r="G2" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2757,22 +2727,22 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="10">
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G3" s="6">
         <v>4</v>
       </c>
     </row>
@@ -2780,68 +2750,68 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="10">
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="10">
+      <c r="B5" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G5" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G6" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2849,22 +2819,22 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="B7" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G7" s="4">
         <v>2</v>
       </c>
     </row>
@@ -2872,45 +2842,45 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G8" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="10">
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G9" s="6">
         <v>3</v>
       </c>
     </row>
@@ -2918,22 +2888,22 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="10">
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G10" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2941,22 +2911,22 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G11" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2964,22 +2934,22 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="B12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2987,45 +2957,45 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="B13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="B14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="4">
         <v>3</v>
       </c>
     </row>
@@ -3033,22 +3003,22 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="B15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="4">
         <v>2</v>
       </c>
     </row>
@@ -3056,22 +3026,22 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="B16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="4">
         <v>3</v>
       </c>
     </row>
@@ -3079,22 +3049,22 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="B17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3102,22 +3072,22 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="B18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="4">
         <v>3</v>
       </c>
     </row>
@@ -3125,22 +3095,22 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="B19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3148,45 +3118,45 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="B20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="B21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3194,22 +3164,22 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" s="8">
+      <c r="B22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="4">
         <v>2</v>
       </c>
     </row>
@@ -3217,22 +3187,22 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G23" s="8">
+      <c r="B23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="4">
         <v>4</v>
       </c>
     </row>
@@ -3240,22 +3210,22 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G24" s="8">
+      <c r="B24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="4">
         <v>2</v>
       </c>
     </row>
@@ -3263,22 +3233,22 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G25" s="8">
+      <c r="B25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="4">
         <v>2</v>
       </c>
     </row>
@@ -3286,22 +3256,22 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="G26" s="8">
+      <c r="B26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="4">
         <v>2</v>
       </c>
     </row>
@@ -3309,22 +3279,22 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G27" s="8">
+      <c r="B27" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="4">
         <v>3</v>
       </c>
     </row>
@@ -3332,22 +3302,22 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G28" s="8">
+      <c r="B28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="4">
         <v>3</v>
       </c>
     </row>
@@ -3355,22 +3325,22 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="G29" s="8">
+      <c r="B29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3378,22 +3348,22 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G30" s="8">
+      <c r="B30" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="4">
         <v>2</v>
       </c>
     </row>
@@ -3401,22 +3371,22 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="G31" s="8">
+      <c r="B31" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31" s="4">
         <v>3</v>
       </c>
     </row>
@@ -3424,22 +3394,22 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G32" s="8">
+      <c r="B32" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="4">
         <v>2</v>
       </c>
     </row>
@@ -3447,22 +3417,22 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G33" s="8">
+      <c r="B33" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33" s="4">
         <v>3</v>
       </c>
     </row>
@@ -3470,22 +3440,22 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G34" s="8">
+      <c r="B34" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="4">
         <v>3</v>
       </c>
     </row>
@@ -3493,22 +3463,22 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G35" s="8">
+      <c r="B35" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" s="4">
         <v>2</v>
       </c>
     </row>
@@ -3516,22 +3486,22 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="G36" s="8">
+      <c r="B36" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3539,22 +3509,22 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G37" s="8">
+      <c r="B37" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="4">
         <v>2</v>
       </c>
     </row>
@@ -3562,22 +3532,22 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="G38" s="8">
+      <c r="B38" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3585,22 +3555,22 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="G39" s="8">
+      <c r="B39" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G39" s="4">
         <v>3</v>
       </c>
     </row>
@@ -3608,22 +3578,22 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="F40" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="G40" s="8">
+      <c r="B40" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G40" s="4">
         <v>4</v>
       </c>
     </row>
@@ -3631,22 +3601,22 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="G41" s="8">
+      <c r="B41" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G41" s="4">
         <v>4</v>
       </c>
     </row>
@@ -3654,22 +3624,22 @@
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="G42" s="8">
+      <c r="B42" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="G42" s="4">
         <v>3</v>
       </c>
     </row>
@@ -3677,22 +3647,22 @@
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="F43" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="G43" s="8">
+      <c r="B43" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G43" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3700,22 +3670,22 @@
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G44" s="8">
+      <c r="B44" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G44" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3723,22 +3693,22 @@
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G45" s="8">
+      <c r="B45" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G45" s="4">
         <v>3</v>
       </c>
     </row>
@@ -3746,22 +3716,22 @@
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G46" s="8">
+      <c r="B46" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G46" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3769,22 +3739,22 @@
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G47" s="8">
+      <c r="B47" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G47" s="4">
         <v>4</v>
       </c>
     </row>
@@ -3792,22 +3762,22 @@
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="G48" s="8">
+      <c r="B48" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G48" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3815,22 +3785,22 @@
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G49" s="8">
+      <c r="B49" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G49" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3838,45 +3808,45 @@
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="G50" s="8">
+      <c r="B50" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G50" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G51" s="8">
+      <c r="B51" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G51" s="4">
         <v>4</v>
       </c>
     </row>

--- a/static/courses/test_ot.xlsx
+++ b/static/courses/test_ot.xlsx
@@ -2016,21 +2016,9 @@
     <t>4) Руководитель объекта (участка), где произошел несчастный случай     </t>
   </si>
   <si>
-    <t>18-21 градус</t>
-  </si>
-  <si>
     <t>Гигиенические требования к температуре в кабинете</t>
   </si>
   <si>
-    <t>15-18 градусов</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 25-30 градусов</t>
-  </si>
-  <si>
-    <t>22- 25 градусов</t>
-  </si>
-  <si>
     <t>по программе первичного инструктажа</t>
   </si>
   <si>
@@ -2140,6 +2128,18 @@
   </si>
   <si>
     <t xml:space="preserve">для всех работников проводить первичный на рабочем месте и повторные инструктажи по охране труда </t>
+  </si>
+  <si>
+    <t>"18-21 градус"</t>
+  </si>
+  <si>
+    <t>"15-18 градусов"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "25-30 градусов"</t>
+  </si>
+  <si>
+    <t>"22- 25 градусов"</t>
   </si>
 </sst>
 </file>
@@ -2663,8 +2663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2705,19 +2705,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="G2" s="5">
         <v>1</v>
@@ -2731,16 +2731,16 @@
         <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G3" s="6">
         <v>4</v>
@@ -2754,16 +2754,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G4" s="6">
         <v>1</v>
@@ -2774,19 +2774,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="G5" s="6">
         <v>4</v>
@@ -2800,16 +2800,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G6" s="6">
         <v>1</v>
@@ -2820,19 +2820,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G7" s="4">
         <v>2</v>
@@ -2846,16 +2846,16 @@
         <v>10</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G8" s="6">
         <v>2</v>
@@ -2869,16 +2869,16 @@
         <v>11</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G9" s="6">
         <v>3</v>
@@ -2892,16 +2892,16 @@
         <v>12</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G10" s="6">
         <v>1</v>
@@ -2915,16 +2915,16 @@
         <v>13</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
